--- a/misc/performance.xlsx
+++ b/misc/performance.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,12 +10,25 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{D4BB5EE2-C48B-4B1A-B4C8-2E37054B9917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -892,21 +905,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B1" s="2">
         <v>36525</v>
       </c>
@@ -1019,7 +1032,7 @@
         <v>37621</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>100</v>
       </c>
@@ -1132,7 +1145,7 @@
         <v>145.4</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>100</v>
       </c>
@@ -1245,7 +1258,7 @@
         <v>150.59</v>
       </c>
     </row>
-    <row r="4" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1394,7 +1407,7 @@
         <v>1.000277854959708E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1543,7 +1556,7 @@
         <v>2.1018374127059314E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>

--- a/misc/performance.xlsx
+++ b/misc/performance.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{D4BB5EE2-C48B-4B1A-B4C8-2E37054B9917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="432" windowWidth="16860" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -908,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
